--- a/FacoDMEK.xlsx
+++ b/FacoDMEK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Websites\faco-dmek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Websites\faco-dmek-improved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9EBDA8-40D2-4793-AA9C-9CE481C36323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F9ECC-36BA-42A3-AB8E-067A7F403D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,10 +831,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J2:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
